--- a/tut05/output/0501EE20.xlsx
+++ b/tut05/output/0501EE20.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.387755102040816</v>
+        <v>7.39</v>
       </c>
       <c r="C6" t="n">
-        <v>6.772727272727272</v>
+        <v>6.77</v>
       </c>
       <c r="D6" t="n">
-        <v>8.782608695652174</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.739130434782609</v>
+        <v>8.74</v>
       </c>
       <c r="F6" t="n">
-        <v>9.153846153846153</v>
+        <v>9.15</v>
       </c>
       <c r="G6" t="n">
         <v>8.550000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>8.767441860465116</v>
+        <v>8.77</v>
       </c>
       <c r="I6" t="n">
-        <v>8.736842105263158</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.387755102040816</v>
+        <v>7.39</v>
       </c>
       <c r="C8" t="n">
-        <v>7.096774193548387</v>
+        <v>7.1</v>
       </c>
       <c r="D8" t="n">
-        <v>7.654676258992806</v>
+        <v>7.65</v>
       </c>
       <c r="E8" t="n">
-        <v>7.924324324324324</v>
+        <v>7.92</v>
       </c>
       <c r="F8" t="n">
-        <v>8.138392857142858</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.200757575757576</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.280130293159608</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.330434782608696</v>
+        <v>8.33</v>
       </c>
     </row>
   </sheetData>
